--- a/ResultadoEleicoesDistritos/BEJA_ALMODÔVAR.xlsx
+++ b/ResultadoEleicoesDistritos/BEJA_ALMODÔVAR.xlsx
@@ -597,25 +597,25 @@
         <v>1794</v>
       </c>
       <c r="H2" t="n">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="I2" t="n">
-        <v>178</v>
+        <v>152</v>
       </c>
       <c r="J2" t="n">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>230</v>
+        <v>209</v>
       </c>
       <c r="M2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N2" t="n">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -624,37 +624,37 @@
         <v>3</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="S2" t="n">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="T2" t="n">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="U2" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="V2" t="n">
-        <v>1119</v>
+        <v>1136</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>1165</v>
+        <v>1220</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
